--- a/Documentation/RequirementsPrioritisationMatrix.xlsx
+++ b/Documentation/RequirementsPrioritisationMatrix.xlsx
@@ -1,27 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20026893\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E337152-791B-464C-BEAF-8CA7215EBBA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-negotiable. Must be included in deliverable. </t>
+  </si>
+  <si>
+    <t>Important but not vital.</t>
+  </si>
+  <si>
+    <t>Desirable. Do if time and budget permit.</t>
+  </si>
+  <si>
+    <t>Nice to have but out of scope.</t>
+  </si>
+  <si>
+    <t>Reqmt Number</t>
+  </si>
+  <si>
+    <t>Requirement identifier</t>
+  </si>
   <si>
     <t>Requirement description</t>
   </si>
@@ -38,34 +79,28 @@
     <t>Won't have</t>
   </si>
   <si>
-    <t>Reqmt Number</t>
+    <t>Functional requirements</t>
+  </si>
+  <si>
+    <t>F3.2.1a</t>
+  </si>
+  <si>
+    <t>Functional requirement 3.2.1a</t>
+  </si>
+  <si>
+    <t>User authentication</t>
   </si>
   <si>
     <t>☑</t>
   </si>
   <si>
-    <t>Mo</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Co</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-negotiable. Must be included in deliverable. </t>
-  </si>
-  <si>
-    <t>Important but not vital.</t>
-  </si>
-  <si>
-    <t>Desirable. Do if time and budget permit.</t>
-  </si>
-  <si>
-    <t>Nice to have but out of scope.</t>
+    <t>F3.2.1b</t>
+  </si>
+  <si>
+    <t>Functional requirement 3.2.1b</t>
+  </si>
+  <si>
+    <t>User authorisation</t>
   </si>
   <si>
     <t>F3.2.2</t>
@@ -74,27 +109,6 @@
     <t>Functional requirement 3.2.2</t>
   </si>
   <si>
-    <t>Requirement identifier</t>
-  </si>
-  <si>
-    <t>User authentication</t>
-  </si>
-  <si>
-    <t>F3.2.1a</t>
-  </si>
-  <si>
-    <t>Functional requirement 3.2.1a</t>
-  </si>
-  <si>
-    <t>F3.2.1b</t>
-  </si>
-  <si>
-    <t>Functional requirement 3.2.1b</t>
-  </si>
-  <si>
-    <t>User authorisation</t>
-  </si>
-  <si>
     <t>History of pictures uploaded</t>
   </si>
   <si>
@@ -152,22 +166,130 @@
     <t>Hair porosity consultation</t>
   </si>
   <si>
+    <t>F3.2.8b</t>
+  </si>
+  <si>
+    <t>Functional requirement 3.2.8b</t>
+  </si>
+  <si>
     <t>Hair density consultation</t>
   </si>
   <si>
+    <t>F3.2.8c</t>
+  </si>
+  <si>
+    <t>Functional requirement 3.2.8c</t>
+  </si>
+  <si>
     <t>Hair texture consultation</t>
   </si>
   <si>
-    <t>F3.2.8b</t>
-  </si>
-  <si>
-    <t>F3.2.8c</t>
-  </si>
-  <si>
-    <t>Functional requirement 3.2.8b</t>
-  </si>
-  <si>
-    <t>Functional requirement 3.2.8c</t>
+    <t>F3.2.9</t>
+  </si>
+  <si>
+    <t>Functional requirement 3.2.9</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>F3.2.10</t>
+  </si>
+  <si>
+    <t>Functional requirement 3.2.10</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>F3.2.11</t>
+  </si>
+  <si>
+    <t>Functional requirement 3.2.11</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>F3.2.12</t>
+  </si>
+  <si>
+    <t>Functional requirement 3.2.12</t>
+  </si>
+  <si>
+    <t>Home - Comparison</t>
+  </si>
+  <si>
+    <t>F3.2.13</t>
+  </si>
+  <si>
+    <t>Functional Requirement 3.2.13</t>
+  </si>
+  <si>
+    <t>My account</t>
+  </si>
+  <si>
+    <t>F3.2.14</t>
+  </si>
+  <si>
+    <t>Functional Requirement 3.2.14</t>
+  </si>
+  <si>
+    <t>Drawer (Navigation)</t>
+  </si>
+  <si>
+    <t>F3.2.15</t>
+  </si>
+  <si>
+    <t>Functional Requirement 3.2.15</t>
+  </si>
+  <si>
+    <t>Select Hair Colour</t>
+  </si>
+  <si>
+    <t>F3.2.16</t>
+  </si>
+  <si>
+    <t>Functional Requirement 3.2.16</t>
+  </si>
+  <si>
+    <t>Select Face Shape</t>
+  </si>
+  <si>
+    <t>F3.2.17</t>
+  </si>
+  <si>
+    <t>Functional Requirement 3.2.17</t>
+  </si>
+  <si>
+    <t>Select Hair Style</t>
+  </si>
+  <si>
+    <t>F3.2.18</t>
+  </si>
+  <si>
+    <t>Functional Requirement 3.2.18</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>F3.2.19</t>
+  </si>
+  <si>
+    <t>Functional Requirement 3.2.19</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>F3.2.20</t>
+  </si>
+  <si>
+    <t>Functional Requirement 3.2.20</t>
+  </si>
+  <si>
+    <t>Splash Screen</t>
   </si>
   <si>
     <t>-</t>
@@ -176,18 +298,15 @@
     <t>3D Imagery (rotating heads)</t>
   </si>
   <si>
+    <t>Non-functional requirements</t>
+  </si>
+  <si>
     <t>NF3.5.1</t>
   </si>
   <si>
     <t>Non-functional requirement 3.5.1</t>
   </si>
   <si>
-    <t>Functional requirements</t>
-  </si>
-  <si>
-    <t>Non-functional requirements</t>
-  </si>
-  <si>
     <t>Usability</t>
   </si>
   <si>
@@ -206,6 +325,9 @@
     <t>Non-functional requirement 3.5.3</t>
   </si>
   <si>
+    <t>Responsiveness</t>
+  </si>
+  <si>
     <t>NF3.5.4</t>
   </si>
   <si>
@@ -213,9 +335,6 @@
   </si>
   <si>
     <t>Extendibility</t>
-  </si>
-  <si>
-    <t>Responsiveness</t>
   </si>
   <si>
     <t>NF3.5.5</t>
@@ -248,8 +367,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +588,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -504,6 +640,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,14 +832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
@@ -697,66 +850,66 @@
     <col min="7" max="7" width="17.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -765,310 +918,493 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75">
+      <c r="A29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1076,24 +1412,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
